--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,7 +3852,7 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>-11503</v>
+        <v>-11522</v>
       </c>
       <c r="C59">
         <v>-8165</v>
@@ -3864,16 +3864,16 @@
         <v>8469</v>
       </c>
       <c r="F59">
-        <v>-3338</v>
+        <v>-3357</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H59">
-        <v>3338</v>
+        <v>3379</v>
       </c>
       <c r="I59">
-        <v>12112</v>
+        <v>12175</v>
       </c>
       <c r="J59">
         <v>8774</v>
@@ -3885,7 +3885,7 @@
         <v>249</v>
       </c>
       <c r="M59">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="N59">
         <v>437</v>
@@ -3897,10 +3897,10 @@
         <v>1314</v>
       </c>
       <c r="Q59">
-        <v>5428</v>
+        <v>5423</v>
       </c>
       <c r="R59">
-        <v>3338</v>
+        <v>3401</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3852,10 +3852,10 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>-11522</v>
+        <v>-11521</v>
       </c>
       <c r="C59">
-        <v>-8165</v>
+        <v>-8164</v>
       </c>
       <c r="D59">
         <v>304</v>
@@ -3873,10 +3873,10 @@
         <v>3379</v>
       </c>
       <c r="I59">
-        <v>12175</v>
+        <v>12174</v>
       </c>
       <c r="J59">
-        <v>8774</v>
+        <v>8773</v>
       </c>
       <c r="K59">
         <v>44</v>

--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3852,16 +3855,16 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>-11521</v>
+        <v>-11519</v>
       </c>
       <c r="C59">
-        <v>-8164</v>
+        <v>-8162</v>
       </c>
       <c r="D59">
         <v>304</v>
       </c>
       <c r="E59">
-        <v>8469</v>
+        <v>8466</v>
       </c>
       <c r="F59">
         <v>-3357</v>
@@ -3873,10 +3876,10 @@
         <v>3379</v>
       </c>
       <c r="I59">
-        <v>12174</v>
+        <v>12172</v>
       </c>
       <c r="J59">
-        <v>8773</v>
+        <v>8771</v>
       </c>
       <c r="K59">
         <v>44</v>
@@ -3894,13 +3897,69 @@
         <v>534</v>
       </c>
       <c r="P59">
-        <v>1314</v>
+        <v>1354</v>
       </c>
       <c r="Q59">
-        <v>5423</v>
+        <v>5380</v>
       </c>
       <c r="R59">
         <v>3401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>-11872</v>
+      </c>
+      <c r="C60">
+        <v>-8507</v>
+      </c>
+      <c r="D60">
+        <v>324</v>
+      </c>
+      <c r="E60">
+        <v>8831</v>
+      </c>
+      <c r="F60">
+        <v>-3365</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>3365</v>
+      </c>
+      <c r="I60">
+        <v>12519</v>
+      </c>
+      <c r="J60">
+        <v>9154</v>
+      </c>
+      <c r="K60">
+        <v>43</v>
+      </c>
+      <c r="L60">
+        <v>194</v>
+      </c>
+      <c r="M60">
+        <v>819</v>
+      </c>
+      <c r="N60">
+        <v>569</v>
+      </c>
+      <c r="O60">
+        <v>722</v>
+      </c>
+      <c r="P60">
+        <v>1222</v>
+      </c>
+      <c r="Q60">
+        <v>5586</v>
+      </c>
+      <c r="R60">
+        <v>3365</v>
       </c>
     </row>
   </sheetData>
